--- a/data/var_enviro_by_guild.xlsx
+++ b/data/var_enviro_by_guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="180" windowWidth="18615" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="375" yWindow="180" windowWidth="18615" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="label_var_enviro" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="232">
   <si>
     <t>layer</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>distance aux zones humide</t>
-  </si>
-  <si>
-    <t>G24-25</t>
   </si>
   <si>
     <t>TO DO</t>
@@ -577,12 +574,6 @@
     <t>G102</t>
   </si>
   <si>
-    <t>G27-31</t>
-  </si>
-  <si>
-    <t>G18b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Continentalité </t>
   </si>
   <si>
@@ -719,6 +710,15 @@
   </si>
   <si>
     <t>Variable</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>G25</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,12 +1056,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1233,7 +1227,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1243,9 +1237,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1261,14 +1252,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1615,11 +1606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1706,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>22</v>
@@ -1720,23 +1711,23 @@
       <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="AH1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -1750,10 +1741,10 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -1804,9 +1795,6 @@
         <v>32</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -1851,10 +1839,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
@@ -1905,9 +1893,6 @@
         <v>32</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z3" s="2" t="s">
@@ -1952,10 +1937,10 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
@@ -2006,9 +1991,6 @@
         <v>32</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z4" s="2" t="s">
@@ -2053,10 +2035,10 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
@@ -2107,9 +2089,6 @@
         <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z5" s="2" t="s">
@@ -2154,10 +2133,10 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
@@ -2208,9 +2187,6 @@
         <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z6" s="2" t="s">
@@ -2255,10 +2231,10 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
@@ -2309,9 +2285,6 @@
         <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z7" s="2" t="s">
@@ -2356,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>32</v>
@@ -2410,9 +2383,6 @@
         <v>32</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z8" s="2" t="s">
@@ -2457,10 +2427,10 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>32</v>
@@ -2511,9 +2481,6 @@
         <v>32</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z9" s="2" t="s">
@@ -2558,10 +2525,10 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>32</v>
@@ -2612,9 +2579,6 @@
         <v>32</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z10" s="2" t="s">
@@ -2659,10 +2623,10 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>32</v>
@@ -2713,9 +2677,6 @@
         <v>32</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z11" s="2" t="s">
@@ -2760,10 +2721,10 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>32</v>
@@ -2814,9 +2775,6 @@
         <v>32</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="2" t="s">
@@ -2861,10 +2819,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>32</v>
@@ -2915,9 +2873,6 @@
         <v>32</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -2962,10 +2917,10 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>32</v>
@@ -3016,9 +2971,6 @@
         <v>32</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -3063,10 +3015,10 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>32</v>
@@ -3117,9 +3069,6 @@
         <v>32</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -3164,10 +3113,10 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>32</v>
@@ -3218,9 +3167,6 @@
         <v>32</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z16" s="2" t="s">
@@ -3265,10 +3211,10 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>32</v>
@@ -3319,9 +3265,6 @@
         <v>32</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z17" s="2" t="s">
@@ -3366,10 +3309,10 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>32</v>
@@ -3420,9 +3363,6 @@
         <v>32</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z18" s="2" t="s">
@@ -3467,10 +3407,10 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>32</v>
@@ -3521,9 +3461,6 @@
         <v>32</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z19" s="2" t="s">
@@ -3568,10 +3505,10 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
@@ -3622,9 +3559,6 @@
         <v>32</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z20" s="2" t="s">
@@ -3669,10 +3603,10 @@
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
@@ -3723,9 +3657,6 @@
         <v>32</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z21" s="2" t="s">
@@ -3770,10 +3701,10 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>32</v>
@@ -3824,9 +3755,6 @@
         <v>32</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z22" s="2" t="s">
@@ -3871,10 +3799,10 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>32</v>
@@ -3925,9 +3853,6 @@
         <v>32</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z23" s="2" t="s">
@@ -3972,10 +3897,10 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>32</v>
@@ -4026,9 +3951,6 @@
         <v>32</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z24" s="2" t="s">
@@ -4073,10 +3995,10 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>32</v>
@@ -4127,9 +4049,6 @@
         <v>32</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z25" s="2" t="s">
@@ -4177,13 +4096,13 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>32</v>
@@ -4234,9 +4153,6 @@
         <v>32</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z26" s="2" t="s">
@@ -4281,10 +4197,10 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>32</v>
@@ -4335,9 +4251,6 @@
         <v>32</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -4382,10 +4295,10 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>32</v>
@@ -4436,9 +4349,6 @@
         <v>32</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z28" s="2" t="s">
@@ -4483,10 +4393,10 @@
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>32</v>
@@ -4537,9 +4447,6 @@
         <v>32</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z29" s="2" t="s">
@@ -4584,10 +4491,10 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>32</v>
@@ -4638,9 +4545,6 @@
         <v>32</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z30" s="2" t="s">
@@ -4685,10 +4589,10 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>32</v>
@@ -4739,9 +4643,6 @@
         <v>32</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z31" s="2" t="s">
@@ -4786,10 +4687,10 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>32</v>
@@ -4840,9 +4741,6 @@
         <v>32</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z32" s="2" t="s">
@@ -4887,10 +4785,10 @@
         <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>32</v>
@@ -4941,9 +4839,6 @@
         <v>32</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -4988,10 +4883,10 @@
         <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>32</v>
@@ -5042,9 +4937,6 @@
         <v>32</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z34" s="2" t="s">
@@ -5089,10 +4981,10 @@
         <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>32</v>
@@ -5143,9 +5035,6 @@
         <v>32</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z35" s="2" t="s">
@@ -5187,24 +5076,23 @@
         <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -5220,21 +5108,20 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
         <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -5250,21 +5137,20 @@
         <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
         <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -5277,15 +5163,14 @@
         <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -5301,21 +5186,20 @@
         <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
         <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -5328,18 +5212,17 @@
         <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -5352,24 +5235,21 @@
         <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG42" s="6" t="s">
+      <c r="AE42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG42" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5384,22 +5264,19 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5414,24 +5291,21 @@
         <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG44" s="6" t="s">
+      <c r="AE44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG44" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5446,21 +5320,18 @@
         <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG45" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5475,24 +5346,21 @@
         <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG46" s="6" t="s">
+      <c r="AE46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG46" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5507,24 +5375,21 @@
         <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG47" s="6" t="s">
+      <c r="AE47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG47" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5539,17 +5404,14 @@
         <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -5562,17 +5424,14 @@
         <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -5585,17 +5444,14 @@
         <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -5608,17 +5464,14 @@
         <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -5634,21 +5487,18 @@
         <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG52" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5663,17 +5513,16 @@
         <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG53" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -5686,61 +5535,59 @@
         <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
         <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
         <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
     </row>
     <row r="56" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
         <v>148</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>32</v>
@@ -5793,9 +5640,6 @@
       <c r="X56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y56" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z56" s="2" t="s">
         <v>32</v>
       </c>
@@ -5808,10 +5652,12 @@
       <c r="AC56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
+      <c r="AD56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
       <c r="AH56" s="2" t="s">
         <v>32</v>
       </c>
@@ -5824,19 +5670,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
         <v>151</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>32</v>
@@ -5889,9 +5735,6 @@
       <c r="X57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y57" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z57" s="2" t="s">
         <v>32</v>
       </c>
@@ -5904,10 +5747,12 @@
       <c r="AC57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="6"/>
+      <c r="AD57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
       <c r="AH57" s="2" t="s">
         <v>32</v>
       </c>
@@ -5920,19 +5765,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
         <v>154</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>32</v>
@@ -5985,9 +5830,6 @@
       <c r="X58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y58" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z58" s="2" t="s">
         <v>32</v>
       </c>
@@ -6000,10 +5842,12 @@
       <c r="AC58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
+      <c r="AD58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
       <c r="AH58" s="2" t="s">
         <v>32</v>
       </c>
@@ -6016,19 +5860,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
         <v>157</v>
       </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>172</v>
+      <c r="D59" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>32</v>
@@ -6081,9 +5925,6 @@
       <c r="X59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y59" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z59" s="2" t="s">
         <v>32</v>
       </c>
@@ -6096,10 +5937,12 @@
       <c r="AC59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
+      <c r="AD59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
       <c r="AH59" s="2" t="s">
         <v>32</v>
       </c>
@@ -6112,19 +5955,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
         <v>159</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>32</v>
@@ -6177,9 +6020,6 @@
       <c r="X60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y60" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z60" s="2" t="s">
         <v>32</v>
       </c>
@@ -6192,10 +6032,12 @@
       <c r="AC60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
+      <c r="AD60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
       <c r="AH60" s="2" t="s">
         <v>32</v>
       </c>
@@ -6208,19 +6050,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
         <v>162</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>32</v>
@@ -6273,9 +6115,6 @@
       <c r="X61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y61" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z61" s="2" t="s">
         <v>32</v>
       </c>
@@ -6288,10 +6127,12 @@
       <c r="AC61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
+      <c r="AD61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
       <c r="AH61" s="2" t="s">
         <v>32</v>
       </c>
@@ -6304,19 +6145,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
         <v>165</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>32</v>
@@ -6369,9 +6210,6 @@
       <c r="X62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y62" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z62" s="2" t="s">
         <v>32</v>
       </c>
@@ -6384,10 +6222,12 @@
       <c r="AC62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
+      <c r="AD62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
       <c r="AH62" s="2" t="s">
         <v>32</v>
       </c>
@@ -6400,19 +6240,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
         <v>168</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>32</v>
@@ -6465,9 +6305,6 @@
       <c r="X63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y63" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z63" s="2" t="s">
         <v>32</v>
       </c>
@@ -6480,10 +6317,12 @@
       <c r="AC63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
+      <c r="AD63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
       <c r="AH63" s="2" t="s">
         <v>32</v>
       </c>
@@ -6493,7 +6332,7 @@
     </row>
     <row r="64" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -6664,10 +6503,10 @@
     </row>
     <row r="69" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -6700,10 +6539,10 @@
     </row>
     <row r="70" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -6808,7 +6647,7 @@
     </row>
     <row r="73" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -6850,464 +6689,464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
